--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3351736666666666</v>
+        <v>0.3740666666666667</v>
       </c>
       <c r="H2">
-        <v>1.005521</v>
+        <v>1.1222</v>
       </c>
       <c r="I2">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="J2">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.023321</v>
+        <v>0.1457</v>
       </c>
       <c r="N2">
-        <v>0.069963</v>
+        <v>0.4371</v>
       </c>
       <c r="O2">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="P2">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="Q2">
-        <v>0.007816585080333333</v>
+        <v>0.05450151333333335</v>
       </c>
       <c r="R2">
-        <v>0.07034926572299999</v>
+        <v>0.4905136200000001</v>
       </c>
       <c r="S2">
-        <v>0.0005950690231930879</v>
+        <v>0.003992198432419263</v>
       </c>
       <c r="T2">
-        <v>0.0005950690231930878</v>
+        <v>0.003992198432419262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3351736666666666</v>
+        <v>0.3740666666666667</v>
       </c>
       <c r="H3">
-        <v>1.005521</v>
+        <v>1.1222</v>
       </c>
       <c r="I3">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="J3">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.97446</v>
       </c>
       <c r="O3">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413642</v>
       </c>
       <c r="P3">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413641</v>
       </c>
       <c r="Q3">
-        <v>1.896463999295556</v>
+        <v>2.116526556888889</v>
       </c>
       <c r="R3">
-        <v>17.06817599366</v>
+        <v>19.048739012</v>
       </c>
       <c r="S3">
-        <v>0.1443759605996047</v>
+        <v>0.1550341171429043</v>
       </c>
       <c r="T3">
-        <v>0.1443759605996047</v>
+        <v>0.1550341171429043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3351736666666666</v>
+        <v>0.3740666666666667</v>
       </c>
       <c r="H4">
-        <v>1.005521</v>
+        <v>1.1222</v>
       </c>
       <c r="I4">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="J4">
-        <v>0.2033242568961982</v>
+        <v>0.2216873086880208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.860661</v>
       </c>
       <c r="O4">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="P4">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="Q4">
-        <v>0.7665043010423334</v>
+        <v>0.8554481971333335</v>
       </c>
       <c r="R4">
-        <v>6.898538709381</v>
+        <v>7.699033774200001</v>
       </c>
       <c r="S4">
-        <v>0.05835322727340043</v>
+        <v>0.06266099311269727</v>
       </c>
       <c r="T4">
-        <v>0.05835322727340041</v>
+        <v>0.06266099311269725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.047022</v>
       </c>
       <c r="I5">
-        <v>0.616131820117499</v>
+        <v>0.6019302323054629</v>
       </c>
       <c r="J5">
-        <v>0.6161318201174989</v>
+        <v>0.6019302323054631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023321</v>
+        <v>0.1457</v>
       </c>
       <c r="N5">
-        <v>0.069963</v>
+        <v>0.4371</v>
       </c>
       <c r="O5">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="P5">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="Q5">
-        <v>0.023686533354</v>
+        <v>0.1479837018</v>
       </c>
       <c r="R5">
-        <v>0.213178800186</v>
+        <v>1.3318533162</v>
       </c>
       <c r="S5">
-        <v>0.001803232757135703</v>
+        <v>0.01083970455529051</v>
       </c>
       <c r="T5">
-        <v>0.001803232757135703</v>
+        <v>0.01083970455529051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.047022</v>
       </c>
       <c r="I6">
-        <v>0.616131820117499</v>
+        <v>0.6019302323054629</v>
       </c>
       <c r="J6">
-        <v>0.6161318201174989</v>
+        <v>0.6019302323054631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.97446</v>
       </c>
       <c r="O6">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413642</v>
       </c>
       <c r="P6">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413641</v>
       </c>
       <c r="Q6">
         <v>5.74683922868</v>
@@ -818,10 +818,10 @@
         <v>51.72155305812</v>
       </c>
       <c r="S6">
-        <v>0.4375012836312009</v>
+        <v>0.4209520278782807</v>
       </c>
       <c r="T6">
-        <v>0.4375012836312008</v>
+        <v>0.4209520278782807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.047022</v>
       </c>
       <c r="I7">
-        <v>0.616131820117499</v>
+        <v>0.6019302323054629</v>
       </c>
       <c r="J7">
-        <v>0.6161318201174989</v>
+        <v>0.6019302323054631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.860661</v>
       </c>
       <c r="O7">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="P7">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="Q7">
         <v>2.322731666838</v>
@@ -880,10 +880,10 @@
         <v>20.904585001542</v>
       </c>
       <c r="S7">
-        <v>0.1768273037291624</v>
+        <v>0.1701384998718918</v>
       </c>
       <c r="T7">
-        <v>0.1768273037291624</v>
+        <v>0.1701384998718918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.8928630000000001</v>
       </c>
       <c r="I8">
-        <v>0.1805439229863029</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="J8">
-        <v>0.1805439229863028</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.023321</v>
+        <v>0.1457</v>
       </c>
       <c r="N8">
-        <v>0.069963</v>
+        <v>0.4371</v>
       </c>
       <c r="O8">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="P8">
-        <v>0.002926699609171003</v>
+        <v>0.01800824077862508</v>
       </c>
       <c r="Q8">
-        <v>0.006940819341</v>
+        <v>0.04336337970000001</v>
       </c>
       <c r="R8">
-        <v>0.06246737406900001</v>
+        <v>0.3902704173000001</v>
       </c>
       <c r="S8">
-        <v>0.0005283978288422122</v>
+        <v>0.00317633779091531</v>
       </c>
       <c r="T8">
-        <v>0.0005283978288422121</v>
+        <v>0.003176337790915309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.8928630000000001</v>
       </c>
       <c r="I9">
-        <v>0.1805439229863029</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="J9">
-        <v>0.1805439229863028</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.97446</v>
       </c>
       <c r="O9">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413642</v>
       </c>
       <c r="P9">
-        <v>0.7100774044550523</v>
+        <v>0.6993369086413641</v>
       </c>
       <c r="Q9">
         <v>1.68398525322</v>
@@ -1004,10 +1004,10 @@
         <v>15.15586727898</v>
       </c>
       <c r="S9">
-        <v>0.1282001602242468</v>
+        <v>0.1233507636201791</v>
       </c>
       <c r="T9">
-        <v>0.1282001602242468</v>
+        <v>0.1233507636201791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.8928630000000001</v>
       </c>
       <c r="I10">
-        <v>0.1805439229863029</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="J10">
-        <v>0.1805439229863028</v>
+        <v>0.1763824590065161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.860661</v>
       </c>
       <c r="O10">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="P10">
-        <v>0.2869958959357767</v>
+        <v>0.2826548505800108</v>
       </c>
       <c r="Q10">
         <v>0.6806255958270001</v>
@@ -1066,10 +1066,10 @@
         <v>6.125630362443001</v>
       </c>
       <c r="S10">
-        <v>0.05181536493321386</v>
+        <v>0.04985535759542169</v>
       </c>
       <c r="T10">
-        <v>0.05181536493321385</v>
+        <v>0.04985535759542168</v>
       </c>
     </row>
   </sheetData>
